--- a/Projekt Wochenbericht.xlsx
+++ b/Projekt Wochenbericht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Marc</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Exe Datei(Launch4j) und Java zusammen in einen Installer gepackt (NSIS)</t>
+  </si>
+  <si>
+    <t>Story fertig gestellt</t>
+  </si>
+  <si>
+    <t>Spiel auf Bugs/Abstürze getestet, Github Konto erstellt und dem Share beigetreten</t>
   </si>
 </sst>
 </file>
@@ -392,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +412,7 @@
     <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="64.85546875" customWidth="1"/>
+    <col min="11" max="11" width="74.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -501,6 +508,9 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -533,6 +543,9 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -548,6 +561,9 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Projekt Wochenbericht.xlsx
+++ b/Projekt Wochenbericht.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Marc</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>Spiel auf Bugs/Abstürze getestet, Github Konto erstellt und dem Share beigetreten</t>
+  </si>
+  <si>
+    <t>Recherche wie eine readme Datei erstellt wird</t>
+  </si>
+  <si>
+    <t>Bugs gefixt</t>
+  </si>
+  <si>
+    <t>Beschreibungen von Gegenständen in Java Doc erstellt</t>
+  </si>
+  <si>
+    <t>LF07 stunde</t>
+  </si>
+  <si>
+    <t>LF07 Stunde</t>
+  </si>
+  <si>
+    <t>Powerpoint angefangen</t>
+  </si>
+  <si>
+    <t>Finalisierung Java Doc</t>
+  </si>
+  <si>
+    <t>Versuch von Bug fixes</t>
   </si>
 </sst>
 </file>
@@ -398,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,12 +431,15 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="64.85546875" customWidth="1"/>
     <col min="11" max="11" width="74.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="49.7109375" customWidth="1"/>
+    <col min="14" max="14" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -511,6 +538,15 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -546,6 +582,15 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -554,17 +599,41 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
